--- a/biology/Médecine/Syndrome/Syndrome.xlsx
+++ b/biology/Médecine/Syndrome/Syndrome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme est issu du grec ancien, composé de sun (avec) et dromos (course) — ce qui en fait l'équivalent du moderne « concours » (dans le sens de « concours de circonstances ») qui, pour sa part, est dérivé du latin. Étymologiquement, syndrome signifie donc « conjonction » ou « réunion d'éléments distincts ».
 Un syndrome est un ensemble de symptômes (de signes cliniques) qu'un patient est susceptible de présenter simultanément lors de certaines maladies, ou bien dans des circonstances cliniques d'écart à la norme pas nécessairement pathologiques.
@@ -512,47 +524,322 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans l'exemple suivant, on voit que l'association céphalée + vomissements + raideur de la nuque + photophobie constitue un syndrome méningé traduisant l'irritation des méninges (plus précisément l'inflammation de l’espace sous-arachnoïdien). Le médecin pratique alors une ponction du liquide céphalo-rachidien qui va l'orienter vers la maladie en cause : hémorragie méningée si le liquide contient du sang, méningite purulente si le liquide est trouble, etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'exemple suivant, on voit que l'association céphalée + vomissements + raideur de la nuque + photophobie constitue un syndrome méningé traduisant l'irritation des méninges (plus précisément l'inflammation de l’espace sous-arachnoïdien). Le médecin pratique alors une ponction du liquide céphalo-rachidien qui va l'orienter vers la maladie en cause : hémorragie méningée si le liquide contient du sang, méningite purulente si le liquide est trouble, etc.
 De nombreux syndromes sont ainsi décrits en médecine, par exemple :
-En ORL
-syndrome du choc acoustique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En ORL</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>syndrome du choc acoustique
 syndrome de déhiscence du canal semi-circulaire supérieur
 syndrome tonique du muscle tenseur du tympan
 syndrome du nez vide
-syndrome de Widal
-En dermatologie
-Syndrome de Lyell
-Syndrome de Stevens-Johnson
-En hépato-gastro-entérologie
-Syndrome de l'intestin irritable (SII), également nommé « côlon irritable » ou « troubles fonctionnels intestinaux »
+syndrome de Widal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En dermatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome de Lyell
+Syndrome de Stevens-Johnson</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En hépato-gastro-entérologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Syndrome de l'intestin irritable (SII), également nommé « côlon irritable » ou « troubles fonctionnels intestinaux »
 Syndrome de malabsorption
 Syndrome de Plummer-Vinson
 Syndrome de prolifération bactérienne de l'intestin grêle
 Syndrome de Zollinger-Ellison
-Syndrome de Boerhaave
-En hématologie
-Voir aussi : Catégorie:Syndrome en hématologie
+Syndrome de Boerhaave</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En hématologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Voir aussi : Catégorie:Syndrome en hématologie
 Syndrome d'Evans
 Syndrome de Felty
 Syndrome d'hyperviscosité
-Syndrome neuro-anémique
-En génétique
-Syndrome de Bloom
+Syndrome neuro-anémique</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En génétique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Syndrome de Bloom
 Syndrome de Down
 Syndrome de Marfan
 Syndrome de Prader-Willi
-Syndrome de Williams Beuren
-En maladies infectieuses
-Syndrome grippal
+Syndrome de Williams Beuren</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En maladies infectieuses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Syndrome grippal
 Syndrome inflammatoire
 Syndrome de Fitz-Hugh-Curtis
-SIDA
-En néphrologie
-Syndrome néphrotique
-En neurologie
-Voir aussi : Syndrome neurologique
+SIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En néphrologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Syndrome néphrotique</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En neurologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Voir aussi : Syndrome neurologique
 Syndrome d'Asperger
 Syndrome de l'accent étranger
 Syndrome de Balint
@@ -580,12 +867,80 @@
 Syndrome vestibulaire
 Syndrome de Wallenberg
 Syndrome de West
-Syndrome de Gilles de La Tourette
-En obstétrique
-HELLP syndrome
-Syndrome de Lacomme
-En pneumologie
-Syndrome alvéolaire
+Syndrome de Gilles de La Tourette</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>En obstétrique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>HELLP syndrome
+Syndrome de Lacomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En pneumologie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Syndrome alvéolaire
 Syndrome d'apnées du sommeil
 Syndrome de détresse respiratoire aiguë
 Syndrome d'Erasmus
@@ -595,9 +950,43 @@
 Syndrome restrictif
 Syndrome de condensation
 Syndrome d'épanchement liquidien de la grande cavité pleurale
-Syndrome d'épanchement gazeux de la cavité pleurale
-En psychiatrie
-Syndrome de Münchhausen par procuration (SMPP)
+Syndrome d'épanchement gazeux de la cavité pleurale</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>En psychiatrie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Syndrome de Münchhausen par procuration (SMPP)
 Syndrome de Benjamin
 Syndrome de Cotard
 Syndrome de Diogène
@@ -605,9 +994,43 @@
 Syndrome dissociatif
 Syndrome malin des neuroleptiques
 Syndrome de Münchausen
-Syndrome de Skoumine
-En psychologie
-Syndrome d'épuisement professionnel
+Syndrome de Skoumine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>En psychologie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Syndrome d'épuisement professionnel
 Syndrome d'aliénation parentale.
 Syndrome de l'imposteur
 Syndrome de Lima
@@ -615,60 +1038,232 @@
 Syndrome de Peter Pan
 Syndrome de Stockholm
 Syndrome de Stendhal
-Syndrome de Jérusalem
-En rhumatologie
-Voir aussi : Catégorie:Syndrome en rhumatologie
+Syndrome de Jérusalem</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En rhumatologie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Voir aussi : Catégorie:Syndrome en rhumatologie
 Syndrome de Fiessinger-Leroy-Reiter
 Syndrome de Cyriax
-Syndrome rotulien
-En urologie
-Voir aussi : Catégorie:Syndrome en urologie
+Syndrome rotulien</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>En urologie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Voir aussi : Catégorie:Syndrome en urologie
 Syndrome de dysgénésie testiculaire ou TDS
 Syndrome irritatif
-Syndrome obstructif urinaire
-En cardiologie
-Voir aussi Catégorie:Syndrome en cardiologie
+Syndrome obstructif urinaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>En cardiologie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Voir aussi Catégorie:Syndrome en cardiologie
 Voir aussi Catégorie:Trouble du rythme cardiaque
 Syndrome de Brugada
 Syndrome de Roemheld
 Syndrome de Skoumine
-Syndrome de la veine cave supérieure
-En endocrinologie
-Syndrome de Kallmann ou Syndrome de Kallmann-Morsier
+Syndrome de la veine cave supérieure</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>En endocrinologie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Syndrome de Kallmann ou Syndrome de Kallmann-Morsier
 Syndrome de Turner
-Syndrome de Stein-Leventhal ou Syndrome des ovaires polykystiques
-Douleurs diverses
-Mastodynie
+Syndrome de Stein-Leventhal ou Syndrome des ovaires polykystiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Douleurs diverses</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mastodynie
 Fibromyalgie
 Syndrome de Means</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Syndrome</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Syndrome</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Autre usage du mot syndrome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Un certain nombre de maladies sont dénommées « syndrome » en général pour des raisons historiques, lorsque des médecins avaient découvert une association de symptômes à laquelle ils avaient donné un nom avant que l'étiologie et la physiopathologie n'en soient déterminées, comme c'est le cas par exemple pour :
 syndrome de dysgénésie testiculaire ;
